--- a/data/trans_dic/P25_10-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25_10-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece varices en las piernas</t>
+          <t>Población que padece varices en las piernas (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>25,97%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>23,19%</t>
+          <t>29,4%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,21%</t>
+          <t>28,04%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>16,76%</t>
+          <t>24,11%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>35,83%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>19,19%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>16,78%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>14,93%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>23,54%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,52; 9,12</t>
+          <t>3,61; 12,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,01; 7,65</t>
+          <t>1,62; 7,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,13; 8,11</t>
+          <t>2,51; 8,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,37; 30,59</t>
+          <t>5,48; 16,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,95; 28,43</t>
+          <t>23,66; 36,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,2; 24,08</t>
+          <t>22,04; 34,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,92; 19,75</t>
+          <t>17,95; 29,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,0; 17,56</t>
+          <t>28,54; 42,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,32; 15,47</t>
+          <t>15,34; 23,78</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>12,9; 20,67</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>11,49; 18,73</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>18,2; 28,42</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>27,24%</t>
+          <t>8,9%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,48%</t>
+          <t>22,53%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>21,3%</t>
+          <t>16,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>18,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,94%</t>
+          <t>21,79%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>15,24%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>12,05%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>12,4%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>15,48%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,84; 8,01</t>
+          <t>3,36; 11,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,89; 8,48</t>
+          <t>3,61; 12,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,84; 10,09</t>
+          <t>3,18; 11,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,87; 32,93</t>
+          <t>5,12; 14,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,2; 25,55</t>
+          <t>16,57; 29,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,44; 27,37</t>
+          <t>11,1; 23,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,62; 20,37</t>
+          <t>13,14; 25,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,33; 15,95</t>
+          <t>14,96; 29,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,83; 17,87</t>
+          <t>11,57; 19,63</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>8,85; 16,04</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>9,4; 16,67</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>11,34; 20,43</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>20,66%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>15,36%</t>
+          <t>19,24%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,49%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,42%</t>
+          <t>23,76%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>11,21%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>8,87%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6,01%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>12,9%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,65; 17,7</t>
+          <t>0,0; 21,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,55; 17,46</t>
+          <t>0,0; 17,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,96; 31,79</t>
+          <t>0,0; 14,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,45; 26,48</t>
+          <t>8,56; 34,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,46; 22,95</t>
+          <t>4,89; 30,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,75; 19,4</t>
+          <t>3,05; 28,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,5; 18,76</t>
+          <t>11,71; 42,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,74; 14,61</t>
+          <t>4,68; 22,09</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3,11; 18,17</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1,73; 15,31</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>5,9; 24,37</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25,96%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,33%</t>
+          <t>25,6%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,3%</t>
+          <t>22,07%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,42%</t>
+          <t>20,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>13,7%</t>
+          <t>29,15%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>16,74%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>14,05%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>12,97%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>19,25%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,14; 8,12</t>
+          <t>4,1; 9,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,9; 7,29</t>
+          <t>3,35; 8,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,95; 7,8</t>
+          <t>3,15; 7,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,87; 29,6</t>
+          <t>5,93; 12,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,43; 24,6</t>
+          <t>21,58; 30,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,23; 22,63</t>
+          <t>18,56; 26,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,26; 18,49</t>
+          <t>16,97; 24,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,91; 15,81</t>
+          <t>24,24; 34,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,7; 14,56</t>
+          <t>13,98; 19,48</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>11,65; 16,58</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>10,75; 15,77</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>16,11; 22,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece varices en las piernas (tasa de respuesta: 99,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>30096</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>14052</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>19406</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>52219</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>149586</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>118071</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>98247</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>201930</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>179682</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>132123</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>117653</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>254148</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>15413; 53301</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5947; 28875</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>9563; 34083</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>28258; 83482</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>120411; 183403</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>92823; 144026</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>73143; 122212</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>160840; 241155</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>143666; 222626</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>101520; 162758</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>90581; 147681</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>196502; 306816</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>23771</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>23144</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>19973</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>36706</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>95823</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>55990</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>61357</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>93649</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>119594</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>79134</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>81330</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>130355</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>12082; 42322</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>11489; 40705</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>10254; 35479</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>21112; 58333</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>70471; 123924</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>37564; 79505</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>43782; 83992</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>64313; 126313</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>90812; 154047</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>58098; 105346</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>61628; 109328</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>95481; 172084</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3468</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2710</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3323</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>19015</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>11586</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>10098</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>26454</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>22482</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>14296</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>10098</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>29777</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 21624</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13639</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16877</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8463; 34043</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3984; 24519</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2517; 23935</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>13041; 47484</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9385; 44314</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5004; 29275</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2911; 25742</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>13616; 56224</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>57335</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>39906</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>39379</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>92248</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>264423</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>185647</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>169702</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>322032</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>321758</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>225553</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>209081</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>414280</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>36430; 86431</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>25560; 61117</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>24844; 60266</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>62153; 129443</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>222969; 313858</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>156094; 223038</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>139671; 204882</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>267819; 381070</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>268593; 374333</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>186970; 266136</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>173344; 254239</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>346680; 487905</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
